--- a/UZr/size_study.xlsx
+++ b/UZr/size_study.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/UZr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B277C2-E8F7-1547-AC83-D85E1EAC1DBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4D7A70-812A-8F43-836D-07E3603A23D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="3540" windowWidth="34760" windowHeight="18400" activeTab="1" xr2:uid="{6F99CB2C-B343-6F45-B8DF-44BE58A0A71D}"/>
+    <workbookView xWindow="2040" yWindow="3120" windowWidth="34760" windowHeight="18400" xr2:uid="{6F99CB2C-B343-6F45-B8DF-44BE58A0A71D}"/>
   </bookViews>
   <sheets>
     <sheet name="bulk" sheetId="1" r:id="rId1"/>
     <sheet name="vac" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">bulk!$W$6:$W$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">bulk!$X$6:$X$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">bulk!$W$6:$W$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">bulk!$X$6:$X$9</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -125,8 +119,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,12 +165,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,6 +442,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-11.138388888888889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-11.138199603174604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,6 +870,9 @@
                 <c:pt idx="3">
                   <c:v>20.072314814814813</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.053253968253969</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1214,7 +1224,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0587-A946-AD10-7F7291079997}"/>
+              <c16:uniqueId val="{00000000-4486-4143-9327-EDD9ABCAF16B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1271,24 +1281,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>bulk!$AO$37:$AO$41</c:f>
+              <c:f>bulk!$AN$37:$AN$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-11.138641666666667</c:v>
+                  <c:v>-11.137463541666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-11.1373725</c:v>
+                  <c:v>-11.138309166666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-11.138481111111112</c:v>
+                  <c:v>-11.138819999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11.138535648148148</c:v>
+                  <c:v>-11.138879166666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-11.138665873015873</c:v>
+                  <c:v>-11.13873373015873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1296,7 +1306,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0587-A946-AD10-7F7291079997}"/>
+              <c16:uniqueId val="{00000001-4486-4143-9327-EDD9ABCAF16B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1353,21 +1363,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>bulk!$AP$37:$AP$41</c:f>
+              <c:f>bulk!$AO$37:$AO$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-11.137948958333332</c:v>
+                  <c:v>-11.138641666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-11.138589999999999</c:v>
+                  <c:v>-11.1373725</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-11.138689444444443</c:v>
+                  <c:v>-11.138481111111112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.138535648148148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-11.138639682539681</c:v>
+                  <c:v>-11.138665873015873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,7 +1388,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0587-A946-AD10-7F7291079997}"/>
+              <c16:uniqueId val="{00000002-4486-4143-9327-EDD9ABCAF16B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1432,6 +1445,88 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
+              <c:f>bulk!$AP$37:$AP$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-11.137948958333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11.138589999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11.138689444444443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.138766203703703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-11.138639682539681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4486-4143-9327-EDD9ABCAF16B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bulk!$AK$37:$AK$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>bulk!$AQ$37:$AQ$41</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
@@ -1457,7 +1552,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0587-A946-AD10-7F7291079997}"/>
+              <c16:uniqueId val="{00000004-4486-4143-9327-EDD9ABCAF16B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1801,7 +1896,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC3D-184E-9897-EFAE1F949118}"/>
+              <c16:uniqueId val="{00000000-1B5B-D34F-9C33-71620A208B94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1858,21 +1953,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>bulk!$AO$45:$AO$49</c:f>
+              <c:f>bulk!$AN$45:$AN$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20.086562499999999</c:v>
+                  <c:v>20.071979166666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.086749999999999</c:v>
+                  <c:v>20.078333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.074944444444444</c:v>
+                  <c:v>20.077555555555556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.084953703703704</c:v>
+                  <c:v>20.073935185185185</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20.074722222222221</c:v>
@@ -1883,7 +1978,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EC3D-184E-9897-EFAE1F949118}"/>
+              <c16:uniqueId val="{00000001-1B5B-D34F-9C33-71620A208B94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1940,18 +2035,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>bulk!$AP$45:$AP$49</c:f>
+              <c:f>bulk!$AO$45:$AO$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20.077291666666667</c:v>
+                  <c:v>20.086562499999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.077916666666667</c:v>
+                  <c:v>20.086749999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.077666666666666</c:v>
+                  <c:v>20.074944444444444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.084953703703704</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20.074722222222221</c:v>
@@ -1962,7 +2060,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EC3D-184E-9897-EFAE1F949118}"/>
+              <c16:uniqueId val="{00000002-1B5B-D34F-9C33-71620A208B94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2019,6 +2117,88 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
+              <c:f>bulk!$AP$45:$AP$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.077291666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.077916666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.077666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.079537037037039</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.074722222222221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1B5B-D34F-9C33-71620A208B94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bulk!$AK$45:$AK$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>bulk!$AQ$45:$AQ$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
@@ -2044,7 +2224,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EC3D-184E-9897-EFAE1F949118}"/>
+              <c16:uniqueId val="{00000004-1B5B-D34F-9C33-71620A208B94}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2387,6 +2567,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-11.138535648148148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-11.138766203703703</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-11.138681944444444</c:v>
@@ -2828,6 +3011,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20.084953703703704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.079537037037039</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20.064675925925926</c:v>
@@ -3256,6 +3442,15 @@
                 <c:pt idx="1">
                   <c:v>1.7253266666666605</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7706883333332826</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.893236574074308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7223948412697609</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3328,6 +3523,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.785416666666606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7761961111109486</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8310111111113656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7431,15 +7632,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7961,23 +8162,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411302AE-136D-EB44-BF30-5B558BEFF375}">
   <dimension ref="A2:AQ71"/>
   <sheetViews>
-    <sheetView topLeftCell="R19" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView tabSelected="1" topLeftCell="Y22" workbookViewId="0">
+      <selection activeCell="AH27" sqref="AH27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="W3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -8006,7 +8207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
       <c r="W5">
         <v>96</v>
       </c>
@@ -8021,7 +8222,7 @@
       </c>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -8063,7 +8264,7 @@
       </c>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
       <c r="W7">
         <v>180</v>
       </c>
@@ -8078,7 +8279,7 @@
       </c>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -8146,7 +8347,7 @@
         <v>-11.138388888888889</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>-1069.3233</v>
       </c>
@@ -8205,9 +8406,11 @@
       <c r="Y9" s="2">
         <v>-11.138205158730157</v>
       </c>
-      <c r="Z9" s="2"/>
+      <c r="Z9" s="2">
+        <v>-11.138199603174604</v>
+      </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <f>C9/$C$4</f>
         <v>-11.138784375</v>
@@ -8272,8 +8475,9 @@
         <f>U9/3</f>
         <v>4.8982422659999996</v>
       </c>
+      <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -8304,7 +8508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <v>-1069.3045999999999</v>
       </c>
@@ -8364,7 +8568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C13" s="2">
         <f>C12/$C$4</f>
         <v>-11.138589583333333</v>
@@ -8442,7 +8646,7 @@
         <v>20.049583333333334</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -8482,7 +8686,7 @@
         <v>20.056166666666666</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
         <v>-1069.2283</v>
       </c>
@@ -8517,11 +8721,21 @@
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="Q15" s="2">
+        <v>-2806.8263000000002</v>
+      </c>
+      <c r="R15" s="2">
+        <v>5053.42</v>
+      </c>
+      <c r="S15" s="2">
+        <v>19.610439366000001</v>
+      </c>
+      <c r="T15" s="2">
+        <v>17.541989518000001</v>
+      </c>
+      <c r="U15" s="2">
+        <v>14.689900279</v>
+      </c>
       <c r="W15">
         <v>180</v>
       </c>
@@ -8534,8 +8748,9 @@
       <c r="Z15" s="2">
         <v>20.080333333333332</v>
       </c>
+      <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
         <f>C15/$C$4</f>
         <v>-11.137794791666666</v>
@@ -8582,23 +8797,23 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2">
         <f>Q15/$Q$4</f>
-        <v>0</v>
+        <v>-11.138199603174604</v>
       </c>
       <c r="R16" s="2">
         <f>R15/$Q$4</f>
-        <v>0</v>
+        <v>20.053253968253969</v>
       </c>
       <c r="S16" s="2">
         <f>S15/7</f>
-        <v>0</v>
+        <v>2.8014913380000004</v>
       </c>
       <c r="T16" s="2">
         <f>T15/3</f>
-        <v>0</v>
+        <v>5.8473298393333337</v>
       </c>
       <c r="U16" s="2">
         <f>U15/3</f>
-        <v>0</v>
+        <v>4.8966334263333335</v>
       </c>
       <c r="W16">
         <v>216</v>
@@ -8612,6 +8827,7 @@
       <c r="Z16" s="2">
         <v>20.072314814814813</v>
       </c>
+      <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
@@ -8642,7 +8858,9 @@
       <c r="Y17" s="2">
         <v>20.079880952380954</v>
       </c>
-      <c r="Z17" s="2"/>
+      <c r="Z17" s="2">
+        <v>20.053253968253969</v>
+      </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
@@ -9778,7 +9996,9 @@
       <c r="AO40" s="2">
         <v>-11.138535648148148</v>
       </c>
-      <c r="AP40" s="2"/>
+      <c r="AP40" s="2">
+        <v>-11.138766203703703</v>
+      </c>
       <c r="AQ40" s="2">
         <v>-11.138681944444444</v>
       </c>
@@ -10367,7 +10587,9 @@
       <c r="AO48" s="2">
         <v>20.084953703703704</v>
       </c>
-      <c r="AP48" s="2"/>
+      <c r="AP48" s="2">
+        <v>20.079537037037039</v>
+      </c>
       <c r="AQ48" s="2">
         <v>20.064675925925926</v>
       </c>
@@ -11105,11 +11327,21 @@
         <v>14.711598875</v>
       </c>
       <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
-      <c r="AA62" s="2"/>
-      <c r="AB62" s="2"/>
+      <c r="X62" s="2">
+        <v>-2405.9735000000001</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>4337.18</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>16.828082810000002</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>17.530349929</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>14.702205438</v>
+      </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2">
         <v>-2405.9553000000001</v>
@@ -11194,23 +11426,23 @@
       <c r="W63" s="2"/>
       <c r="X63" s="2">
         <f>X62/$J$18</f>
-        <v>0</v>
+        <v>-11.138766203703703</v>
       </c>
       <c r="Y63" s="2">
         <f>Y62/$J$18</f>
-        <v>0</v>
+        <v>20.079537037037039</v>
       </c>
       <c r="Z63" s="2">
         <f>Z62/6</f>
-        <v>0</v>
+        <v>2.8046804683333337</v>
       </c>
       <c r="AA63" s="2">
         <f>AA62/3</f>
-        <v>0</v>
+        <v>5.843449976333333</v>
       </c>
       <c r="AB63" s="2">
         <f>AB62/3</f>
-        <v>0</v>
+        <v>4.9007351459999997</v>
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" s="2">
@@ -11604,8 +11836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D29AC6D-F1C9-874D-BE4C-EB74DFFC030C}">
   <dimension ref="B2:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11756,14 +11988,18 @@
         <v>-11.138303888888888</v>
       </c>
       <c r="R7" s="1"/>
-      <c r="S7">
+      <c r="S7" s="5">
         <v>180</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="6">
         <v>1.7706944444444161</v>
       </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
+      <c r="U7" s="2">
+        <v>1.7706883333332826</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1.7761961111109486</v>
+      </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -11811,8 +12047,12 @@
       <c r="T8" s="2">
         <v>1.8443291666671939</v>
       </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
+      <c r="U8" s="2">
+        <v>1.893236574074308</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1.8310111111113656</v>
+      </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
@@ -11852,7 +12092,9 @@
       <c r="T9" s="2">
         <v>1.7154785714287755</v>
       </c>
-      <c r="U9" s="2"/>
+      <c r="U9" s="2">
+        <v>1.7223948412697609</v>
+      </c>
       <c r="V9" s="2"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
@@ -11891,15 +12133,19 @@
         <f>C12/($C$4-1)</f>
         <v>-11.117037894736843</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>-1991.9871000000001</v>
+      </c>
       <c r="H12" s="2">
         <f>G12/($G$4-1)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="1"/>
+        <v>-11.128419553072627</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-2793.9670999999998</v>
+      </c>
       <c r="L12" s="2">
         <f>K12/($K$4-1)</f>
-        <v>0</v>
+        <v>-11.131343027888446</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.2">
@@ -11909,13 +12155,13 @@
       </c>
       <c r="D13" s="1"/>
       <c r="G13" s="2">
-        <f>G12-($G$4-1)*$O$7</f>
-        <v>1993.7566944444445</v>
+        <f>G12-($G$4-1)*$P$7</f>
+        <v>1.7706883333332826</v>
       </c>
       <c r="H13" s="1"/>
       <c r="K13" s="2">
-        <f>K12-($K$4-1)*$O$9</f>
-        <v>2795.6935785714286</v>
+        <f>K12-($K$4-1)*$P$9</f>
+        <v>1.7223948412697609</v>
       </c>
       <c r="L13" s="1"/>
       <c r="O13" s="2"/>
@@ -11944,10 +12190,12 @@
         <f>C15/($C$4-1)</f>
         <v>-11.118407368421053</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>-1991.9802</v>
+      </c>
       <c r="H15" s="2">
         <f>G15/($G$4-1)</f>
-        <v>0</v>
+        <v>-11.128381005586592</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="2">
@@ -11965,8 +12213,8 @@
       </c>
       <c r="D16" s="1"/>
       <c r="G16" s="2">
-        <f>G15-($G$4-1)*$O$7</f>
-        <v>1993.7566944444445</v>
+        <f>G15-($G$4-1)*$Q$7</f>
+        <v>1.7761961111109486</v>
       </c>
       <c r="H16" s="1"/>
       <c r="K16" s="2">
@@ -12075,10 +12323,12 @@
         <f>C26/($C$4-1)</f>
         <v>-13.933991578947369</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>-2392.8764000000001</v>
+      </c>
       <c r="H26" s="2">
         <f>G26/($G$18-1)</f>
-        <v>0</v>
+        <v>-11.129657674418604</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
@@ -12088,8 +12338,8 @@
       </c>
       <c r="D27" s="2"/>
       <c r="G27" s="2">
-        <f>G26-($G$18-1)*$O$8</f>
-        <v>2394.7712291666671</v>
+        <f>G26-($G$18-1)*$P$8</f>
+        <v>1.893236574074308</v>
       </c>
       <c r="H27" s="1"/>
     </row>
@@ -12109,10 +12359,12 @@
         <f>C29/($C$4-1)</f>
         <v>-13.933997894736843</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1">
+        <v>-2392.9225999999999</v>
+      </c>
       <c r="H29" s="2">
         <f>G29/($G$18-1)</f>
-        <v>0</v>
+        <v>-11.129872558139533</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
@@ -12122,8 +12374,8 @@
       </c>
       <c r="D30" s="2"/>
       <c r="G30" s="2">
-        <f>G29-($G$18-1)*$O$8</f>
-        <v>2394.7712291666671</v>
+        <f>G29-($G$18-1)*$Q$8</f>
+        <v>1.8310111111113656</v>
       </c>
       <c r="H30" s="1"/>
     </row>
